--- a/Data/Export/Common/Skill_技能.xlsx
+++ b/Data/Export/Common/Skill_技能.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0817FE63-D083-44F2-B7E9-F5D373ECC744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F93823-6D54-4CEA-99EB-08E6EFD3C118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="96">
   <si>
     <t>备注:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,10 +327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基础成功率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,6 +367,21 @@
   </si>
   <si>
     <t>目标撞击伤害倍率(百分比)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aobj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"Burn",probability:5000,turn:[1,2], weight:[70,30],condition:{class:"SkillIsCritical",result:0}},{class:"Burn",probability:5000,turn:[2,3], weight:[70,30],condition:{class:"SkillIsCritical",result:1}}]</t>
+  </si>
+  <si>
+    <t>[{class:"Burn",probability:5000,turn:[1,2], weight:[70,30],condition:{class:"SkillIsCritical",result:0}},{class:"Burn",probability:5000,turn:[2,3], weight:[70,30],condition:{class:"SkillIsCritical",result:1}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"AddBuff",buffId:1,probability:5000,turn:[1,2], weight:[70,30],condition:{class:"SkillIsCritical",result:0}},{class:"AddBuff",buffId:1,probability:5000,turn:[2,3], weight:[70,30],condition:{class:"SkillIsCritical",result:1}}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -860,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
   <dimension ref="A1:AG69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -879,7 +890,8 @@
     <col min="12" max="12" width="10.75" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="255.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.75" style="2" customWidth="1"/>
     <col min="20" max="20" width="20.75" style="2" bestFit="1" customWidth="1"/>
@@ -903,7 +915,7 @@
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>11</v>
@@ -915,16 +927,16 @@
         <v>13</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>52</v>
@@ -942,7 +954,7 @@
         <v>74</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>48</v>
@@ -1018,7 +1030,7 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>5</v>
@@ -1030,16 +1042,16 @@
         <v>32</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="L3" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>33</v>
@@ -1093,7 +1105,7 @@
         <v>66</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>1</v>
@@ -1132,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="13" t="s">
         <v>4</v>
@@ -1372,6 +1384,9 @@
       <c r="N8" s="4">
         <v>1</v>
       </c>
+      <c r="P8" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="S8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1678,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>6</v>
@@ -2046,7 +2061,7 @@
         <v>2</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>6</v>
@@ -2165,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>6</v>
@@ -2287,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>6</v>

--- a/Data/Export/Common/Skill_技能.xlsx
+++ b/Data/Export/Common/Skill_技能.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F93823-6D54-4CEA-99EB-08E6EFD3C118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAF7931-D4AA-4F0F-B303-36F5068C67F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="104">
   <si>
     <t>备注:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,6 +382,38 @@
   </si>
   <si>
     <t>[{class:"AddBuff",buffId:1,probability:5000,turn:[1,2], weight:[70,30],condition:{class:"SkillIsCritical",result:0}},{class:"AddBuff",buffId:1,probability:5000,turn:[2,3], weight:[70,30],condition:{class:"SkillIsCritical",result:1}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扰乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伪报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内讧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -871,8 +903,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
   <dimension ref="A1:AG69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1900,7 +1935,7 @@
       <c r="AD16" s="4"/>
       <c r="AF16" s="4"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -1961,7 +1996,7 @@
       <c r="AD17" s="4"/>
       <c r="AF17" s="4"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2022,7 +2057,7 @@
       <c r="AD18" s="4"/>
       <c r="AF18" s="4"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -2083,7 +2118,7 @@
       <c r="AD19" s="4"/>
       <c r="AF19" s="4"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -2141,7 +2176,7 @@
       <c r="AD20" s="4"/>
       <c r="AF20" s="4"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -2202,7 +2237,7 @@
       <c r="AD21" s="4"/>
       <c r="AF21" s="4"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -2263,7 +2298,7 @@
       <c r="AD22" s="4"/>
       <c r="AF22" s="4"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -2324,7 +2359,7 @@
       <c r="AD23" s="4"/>
       <c r="AF23" s="4"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -2385,7 +2420,7 @@
       <c r="AD24" s="4"/>
       <c r="AF24" s="4"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -2446,80 +2481,209 @@
       <c r="AD25" s="4"/>
       <c r="AF25" s="4"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+    <row r="26" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B26" s="4">
+        <v>22</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="H26" s="4">
+        <v>10</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
       <c r="L26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
+      <c r="M26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
       <c r="AF26" s="4"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+    <row r="27" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B27" s="4">
+        <v>23</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="4">
+        <v>3</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="H27" s="4">
+        <v>10</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
       <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
       <c r="L27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
+      <c r="M27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N27" s="4">
+        <v>1</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W27" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
       <c r="AF27" s="4"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B28" s="4">
+        <v>24</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="4">
+        <v>3</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="H28" s="4">
+        <v>15</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
       <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
       <c r="L28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
+      <c r="M28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="4">
+        <v>1</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
       <c r="AF28" s="4"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B29" s="4">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="4">
+        <v>3</v>
+      </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="H29" s="4">
+        <v>15</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
       <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
       <c r="L29" s="4"/>
-      <c r="N29" s="4"/>
+      <c r="M29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N29" s="4">
+        <v>1</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
       <c r="AB29" s="4"/>
@@ -2527,19 +2691,53 @@
       <c r="AD29" s="4"/>
       <c r="AF29" s="4"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B30" s="4">
+        <v>26</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="4">
+        <v>3</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="H30" s="4">
+        <v>10</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
       <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
       <c r="L30" s="4"/>
-      <c r="N30" s="4"/>
+      <c r="M30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30" s="4">
+        <v>1</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
       <c r="AB30" s="4"/>
@@ -2547,19 +2745,53 @@
       <c r="AD30" s="4"/>
       <c r="AF30" s="4"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B31" s="4">
+        <v>27</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3</v>
+      </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="H31" s="4">
+        <v>10</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
       <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
       <c r="L31" s="4"/>
-      <c r="N31" s="4"/>
+      <c r="M31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N31" s="4">
+        <v>1</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
       <c r="AB31" s="4"/>
@@ -2567,19 +2799,53 @@
       <c r="AD31" s="4"/>
       <c r="AF31" s="4"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="B32" s="4">
+        <v>28</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="H32" s="4">
+        <v>20</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
       <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
       <c r="L32" s="4"/>
-      <c r="N32" s="4"/>
+      <c r="M32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
       <c r="AB32" s="4"/>
@@ -2600,6 +2866,9 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="N33" s="4"/>
+      <c r="S33" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AB33" s="4"/>

--- a/Data/Export/Common/Skill_技能.xlsx
+++ b/Data/Export/Common/Skill_技能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAF7931-D4AA-4F0F-B303-36F5068C67F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D0B0C1-37F4-4C01-8C61-E109E132BD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="570" windowWidth="22095" windowHeight="11865" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="106">
   <si>
     <t>备注:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,6 +415,13 @@
   <si>
     <t>内讧</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canSpellToCell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onlySpellToTeam</t>
   </si>
 </sst>
 </file>
@@ -538,7 +545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -584,9 +591,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -904,10 +908,10 @@
   <dimension ref="A1:AG69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="N11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -932,9 +936,7 @@
     <col min="20" max="20" width="20.75" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.75" style="2" customWidth="1"/>
-    <col min="25" max="25" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="18.25" style="2" customWidth="1"/>
     <col min="27" max="27" width="70.5" style="2" customWidth="1"/>
     <col min="28" max="16384" width="9" style="2"/>
@@ -988,7 +990,7 @@
       <c r="Q1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="16" t="s">
         <v>91</v>
       </c>
       <c r="S1" s="12" t="s">
@@ -1006,8 +1008,12 @@
       <c r="W1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="12"/>
+      <c r="X1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="Z1" s="12"/>
       <c r="AA1" s="6"/>
       <c r="AB1" s="8"/>
@@ -1043,7 +1049,8 @@
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
-      <c r="Y2" s="14"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
       <c r="Z2" s="14"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
@@ -1121,8 +1128,12 @@
       <c r="W3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
+      <c r="X3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
@@ -1202,8 +1213,12 @@
       <c r="W4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="15"/>
+      <c r="X4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="Z4" s="15"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.15">
@@ -1255,7 +1270,12 @@
       <c r="W5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y5" s="4"/>
+      <c r="X5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Z5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
@@ -1312,7 +1332,12 @@
       <c r="W6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y6" s="4"/>
+      <c r="X6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Z6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
@@ -1376,7 +1401,12 @@
       <c r="W7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y7" s="4"/>
+      <c r="X7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Z7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
@@ -1437,7 +1467,12 @@
       <c r="W8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y8" s="4"/>
+      <c r="X8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Z8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
@@ -1501,7 +1536,12 @@
       <c r="W9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="4"/>
+      <c r="X9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Z9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
@@ -1562,7 +1602,12 @@
       <c r="W10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y10" s="4"/>
+      <c r="X10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Z10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
@@ -1623,7 +1668,12 @@
       <c r="W11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y11" s="4"/>
+      <c r="X11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Z11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
@@ -1684,7 +1734,12 @@
       <c r="W12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y12" s="4"/>
+      <c r="X12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Z12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
@@ -1745,7 +1800,12 @@
       <c r="W13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y13" s="4"/>
+      <c r="X13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Z13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
@@ -1806,7 +1866,12 @@
       <c r="W14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y14" s="4"/>
+      <c r="X14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Z14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
@@ -1867,7 +1932,12 @@
       <c r="W15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y15" s="4"/>
+      <c r="X15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Z15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
@@ -1928,7 +1998,12 @@
       <c r="W16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y16" s="4"/>
+      <c r="X16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Z16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
@@ -1989,7 +2064,12 @@
       <c r="W17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y17" s="4"/>
+      <c r="X17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Z17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
@@ -2050,7 +2130,12 @@
       <c r="W18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y18" s="4"/>
+      <c r="X18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Z18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
@@ -2113,6 +2198,12 @@
       <c r="W19" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="X19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -2171,6 +2262,12 @@
       <c r="W20" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="X20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -2232,6 +2329,12 @@
       <c r="W21" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="X21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -2293,6 +2396,12 @@
       <c r="W22" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="X22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -2354,6 +2463,12 @@
       <c r="W23" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="X23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -2415,6 +2530,12 @@
       <c r="W24" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="X24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -2476,6 +2597,12 @@
       <c r="W25" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="X25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -2528,6 +2655,12 @@
       <c r="W26" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="X26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -2580,6 +2713,12 @@
       <c r="W27" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="X27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -2632,6 +2771,12 @@
       <c r="W28" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="X28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -2684,7 +2829,12 @@
       <c r="W29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y29" s="4"/>
+      <c r="X29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Z29" s="4"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
@@ -2738,7 +2888,12 @@
       <c r="W30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y30" s="4"/>
+      <c r="X30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="Z30" s="4"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
@@ -2792,7 +2947,12 @@
       <c r="W31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y31" s="4"/>
+      <c r="X31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Z31" s="4"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
@@ -2846,7 +3006,12 @@
       <c r="W32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y32" s="4"/>
+      <c r="X32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="Z32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
@@ -2869,7 +3034,6 @@
       <c r="S33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
@@ -2889,7 +3053,6 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="N34" s="4"/>
-      <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
@@ -2909,7 +3072,6 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="N35" s="4"/>
-      <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
@@ -2929,7 +3091,6 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="N36" s="4"/>
-      <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
@@ -2949,7 +3110,6 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="N37" s="4"/>
-      <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
@@ -2969,7 +3129,6 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="N38" s="4"/>
-      <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
@@ -2989,7 +3148,6 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="N39" s="4"/>
-      <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>

--- a/Data/Export/Common/Skill_技能.xlsx
+++ b/Data/Export/Common/Skill_技能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D0B0C1-37F4-4C01-8C61-E109E132BD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7889CC83-1C52-4800-A00E-378163BDB755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="570" windowWidth="22095" windowHeight="11865" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="128">
   <si>
     <t>备注:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,18 +331,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成功率加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>successRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>successRateAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>needAblilityLevel</t>
   </si>
   <si>
@@ -374,17 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{class:"Burn",probability:5000,turn:[1,2], weight:[70,30],condition:{class:"SkillIsCritical",result:0}},{class:"Burn",probability:5000,turn:[2,3], weight:[70,30],condition:{class:"SkillIsCritical",result:1}}]</t>
-  </si>
-  <si>
-    <t>[{class:"Burn",probability:5000,turn:[1,2], weight:[70,30],condition:{class:"SkillIsCritical",result:0}},{class:"Burn",probability:5000,turn:[2,3], weight:[70,30],condition:{class:"SkillIsCritical",result:1}}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"AddBuff",buffId:1,probability:5000,turn:[1,2], weight:[70,30],condition:{class:"SkillIsCritical",result:0}},{class:"AddBuff",buffId:1,probability:5000,turn:[2,3], weight:[70,30],condition:{class:"SkillIsCritical",result:1}}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>火计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,6 +403,96 @@
   </si>
   <si>
     <t>onlySpellToTeam</t>
+  </si>
+  <si>
+    <t>successMethod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>criticalMethod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功率逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommonMethod</t>
+  </si>
+  <si>
+    <t>PutOutFireCriticalMethod</t>
+  </si>
+  <si>
+    <t>FalseReportCriticalMethod</t>
+  </si>
+  <si>
+    <t>DisturbCriticalMethod</t>
+  </si>
+  <si>
+    <t>CalmdownCriticalMethod</t>
+  </si>
+  <si>
+    <t>AmbushCriticalMethod</t>
+  </si>
+  <si>
+    <t>FireSuccessMethod</t>
+  </si>
+  <si>
+    <t>PutOutFireSuccessMethod</t>
+  </si>
+  <si>
+    <t>FalseReportSuccessMethod</t>
+  </si>
+  <si>
+    <t>DisturbSuccessMethod</t>
+  </si>
+  <si>
+    <t>CalmdownSuccessMethod</t>
+  </si>
+  <si>
+    <t>AmbushSuccessMethod</t>
+  </si>
+  <si>
+    <t>InfightingSuccessMethod</t>
+  </si>
+  <si>
+    <t>InfightingCriticalMethod</t>
+  </si>
+  <si>
+    <t>FireCriticalMethod</t>
+  </si>
+  <si>
+    <t>[{class:"PutoutFire",probability:10000}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"Burn",probability:5000,values:[1,2], weight:[70,30],condition:{class:"SkillIsCritical",result:0}},{class:"Burn",probability:5000,values:[2,3], weight:[70,30],condition:{class:"SkillIsCritical",result:1}}]</t>
+  </si>
+  <si>
+    <t>[{class:"Burn",probability:5000,values:[1,2], weight:[70,30],condition:{class:"SkillIsCritical",result:0}},{class:"Burn",probability:5000,values:[2,3], weight:[70,30],condition:{class:"SkillIsCritical",result:1}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"AddBuff",buffId:1,probability:5000,values:[1,2], weight:[70,30],condition:{class:"SkillIsCritical",result:0}},{class:"AddBuff",buffId:1,probability:5000,values:[2,3], weight:[70,30],condition:{class:"SkillIsCritical",result:1}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"Burn",probability:10000,values:[1,2], weight:[70,30],condition:{class:"SkillIsCritical",result:0}},{class:"Burn",probability:10000,values:[2,3], weight:[70,30],condition:{class:"SkillIsCritical",result:1}}]</t>
+  </si>
+  <si>
+    <t>[{class:"AddBuff",buffId:2,probability:10000,values:[1,2], weight:[70,30],condition:{class:"SkillIsCritical",result:0}},{class:"AddBuff",buffId:2,probability:10000,values:[2,3], weight:[70,30],condition:{class:"SkillIsCritical",result:1}}]</t>
+  </si>
+  <si>
+    <t>[{class:"AddBuff",buffId:1,probability:10000,values:[1,2], weight:[70,30],condition:{class:"SkillIsCritical",result:0}},{class:"AddBuff",buffId:1,probability:10000,values:[2,3], weight:[70,30],condition:{class:"SkillIsCritical",result:1}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"RemoveBuffById",values:[1,2],probability:10000},class:"RecureWoundedTroops",probability:10000,values:[20,30], weight:[70,30],condition:{class:"SkillIsCritical",result:1}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -905,13 +976,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:AG69"/>
+  <dimension ref="A1:AH69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="N11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="U5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
+      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -924,25 +995,26 @@
     <col min="7" max="7" width="19.75" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="255.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.75" style="2" customWidth="1"/>
-    <col min="20" max="20" width="20.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.25" style="2" customWidth="1"/>
-    <col min="27" max="27" width="70.5" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="2"/>
+    <col min="10" max="10" width="27.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="255.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.75" style="2" customWidth="1"/>
+    <col min="21" max="21" width="20.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.25" style="2" customWidth="1"/>
+    <col min="28" max="28" width="70.5" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
         <v>9</v>
@@ -952,7 +1024,7 @@
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>11</v>
@@ -967,46 +1039,46 @@
         <v>81</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>86</v>
-      </c>
       <c r="M1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="X1" s="12" t="s">
         <v>42</v>
@@ -1014,16 +1086,19 @@
       <c r="Y1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="6"/>
-    </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="6"/>
+    </row>
+    <row r="2" spans="1:34" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,16 +1126,17 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="2"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="14"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-    </row>
-    <row r="3" spans="1:33" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH2" s="2"/>
+    </row>
+    <row r="3" spans="1:34" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1072,7 +1148,7 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>5</v>
@@ -1084,57 +1160,59 @@
         <v>32</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="V3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="X3" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="Y3" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z3" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
@@ -1142,8 +1220,9 @@
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
-    </row>
-    <row r="4" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH3" s="7"/>
+    </row>
+    <row r="4" spans="1:34" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1151,7 +1230,7 @@
         <v>66</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>1</v>
@@ -1172,34 +1251,34 @@
         <v>66</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>66</v>
       </c>
       <c r="M4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>8</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>4</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="Q4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="R4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="S4" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>8</v>
       </c>
       <c r="T4" s="13" t="s">
         <v>8</v>
@@ -1219,9 +1298,12 @@
       <c r="Y4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="15"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="Z4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="15"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1244,20 +1326,22 @@
       <c r="I5" s="4">
         <v>100</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4">
+      <c r="J5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" s="4">
         <v>0</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="M5" s="4"/>
+      <c r="N5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="4">
         <v>1</v>
       </c>
-      <c r="S5" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="T5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1268,7 +1352,7 @@
         <v>6</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X5" s="2" t="s">
         <v>7</v>
@@ -1276,13 +1360,16 @@
       <c r="Y5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="4"/>
-      <c r="AB5" s="4"/>
+      <c r="Z5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
-      <c r="AF5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AE5" s="4"/>
+      <c r="AG5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1306,20 +1393,22 @@
       <c r="I6" s="4">
         <v>100</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4">
+      <c r="J6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" s="4">
         <v>0</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" s="4">
+      <c r="M6" s="4"/>
+      <c r="N6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="4">
         <v>2</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="T6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1330,7 +1419,7 @@
         <v>6</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X6" s="2" t="s">
         <v>7</v>
@@ -1338,13 +1427,16 @@
       <c r="Y6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="4"/>
-      <c r="AB6" s="4"/>
+      <c r="Z6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="4"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
-      <c r="AF6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AE6" s="4"/>
+      <c r="AG6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1369,31 +1461,33 @@
       <c r="I7" s="4">
         <v>70</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4">
+      <c r="J7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="4">
         <v>1</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="4">
+      <c r="M7" s="4"/>
+      <c r="N7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="4">
         <v>1</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>7</v>
@@ -1407,13 +1501,16 @@
       <c r="Y7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="4"/>
-      <c r="AB7" s="4"/>
+      <c r="Z7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
-      <c r="AF7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AE7" s="4"/>
+      <c r="AG7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1438,28 +1535,30 @@
       <c r="I8" s="4">
         <v>70</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4">
+      <c r="J8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" s="4">
         <v>2</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="4">
+      <c r="M8" s="4"/>
+      <c r="N8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="4">
         <v>1</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>6</v>
+      <c r="Q8" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>7</v>
@@ -1473,13 +1572,16 @@
       <c r="Y8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z8" s="4"/>
-      <c r="AB8" s="4"/>
+      <c r="Z8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
-      <c r="AF8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AE8" s="4"/>
+      <c r="AG8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -1504,31 +1606,33 @@
       <c r="I9" s="4">
         <v>60</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4">
+      <c r="J9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" s="4">
         <v>3</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9" s="4">
+      <c r="M9" s="4"/>
+      <c r="N9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="4">
         <v>1</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="T9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>7</v>
@@ -1542,13 +1646,16 @@
       <c r="Y9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z9" s="4"/>
-      <c r="AB9" s="4"/>
+      <c r="Z9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
-      <c r="AF9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AE9" s="4"/>
+      <c r="AG9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -1573,28 +1680,30 @@
       <c r="I10" s="4">
         <v>70</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4">
+      <c r="J10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" s="4">
         <v>1</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="4">
+      <c r="M10" s="4"/>
+      <c r="N10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="4">
         <v>1</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="S10" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="T10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>7</v>
@@ -1608,13 +1717,16 @@
       <c r="Y10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z10" s="4"/>
-      <c r="AB10" s="4"/>
+      <c r="Z10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
-      <c r="AF10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AE10" s="4"/>
+      <c r="AG10" s="4"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -1639,28 +1751,30 @@
       <c r="I11" s="4">
         <v>70</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4">
+      <c r="J11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" s="4">
         <v>2</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="M11" s="4"/>
+      <c r="N11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="4">
         <v>1</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="S11" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="T11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V11" s="2" t="s">
         <v>7</v>
@@ -1674,13 +1788,16 @@
       <c r="Y11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z11" s="4"/>
-      <c r="AB11" s="4"/>
+      <c r="Z11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
-      <c r="AF11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AE11" s="4"/>
+      <c r="AG11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -1705,28 +1822,30 @@
       <c r="I12" s="4">
         <v>65</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4">
+      <c r="J12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" s="4">
         <v>3</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="4">
+      <c r="M12" s="4"/>
+      <c r="N12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="4">
         <v>1</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="S12" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="T12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V12" s="2" t="s">
         <v>7</v>
@@ -1740,13 +1859,16 @@
       <c r="Y12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z12" s="4"/>
-      <c r="AB12" s="4"/>
+      <c r="Z12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
-      <c r="AF12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AE12" s="4"/>
+      <c r="AG12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -1771,22 +1893,24 @@
       <c r="I13" s="4">
         <v>75</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4">
+      <c r="J13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L13" s="4">
         <v>1</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" s="4">
+      <c r="M13" s="4"/>
+      <c r="N13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="4">
         <v>2</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>6</v>
+      <c r="Q13" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>6</v>
@@ -1798,7 +1922,7 @@
         <v>6</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X13" s="2" t="s">
         <v>7</v>
@@ -1806,13 +1930,16 @@
       <c r="Y13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z13" s="4"/>
-      <c r="AB13" s="4"/>
+      <c r="Z13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
-      <c r="AF13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AE13" s="4"/>
+      <c r="AG13" s="4"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -1837,23 +1964,25 @@
       <c r="I14" s="4">
         <v>70</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4">
+      <c r="J14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L14" s="4">
         <v>2</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14" s="4">
+      <c r="M14" s="4"/>
+      <c r="N14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="4">
         <v>2</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="S14" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="T14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1864,7 +1993,7 @@
         <v>6</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X14" s="2" t="s">
         <v>7</v>
@@ -1872,13 +2001,16 @@
       <c r="Y14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z14" s="4"/>
-      <c r="AB14" s="4"/>
+      <c r="Z14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
-      <c r="AF14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AE14" s="4"/>
+      <c r="AG14" s="4"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -1903,23 +2035,25 @@
       <c r="I15" s="4">
         <v>65</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4">
+      <c r="J15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L15" s="4">
         <v>3</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15" s="4">
+      <c r="M15" s="4"/>
+      <c r="N15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="4">
         <v>2</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S15" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="T15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1930,7 +2064,7 @@
         <v>6</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X15" s="2" t="s">
         <v>7</v>
@@ -1938,13 +2072,16 @@
       <c r="Y15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z15" s="4"/>
-      <c r="AB15" s="4"/>
+      <c r="Z15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
-      <c r="AF15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AE15" s="4"/>
+      <c r="AG15" s="4"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -1969,28 +2106,30 @@
       <c r="I16" s="4">
         <v>70</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4">
+      <c r="J16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="4">
         <v>1</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N16" s="4">
+      <c r="M16" s="4"/>
+      <c r="N16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="4">
         <v>1</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="R16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="S16" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="T16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V16" s="2" t="s">
         <v>7</v>
@@ -2004,13 +2143,16 @@
       <c r="Y16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z16" s="4"/>
-      <c r="AB16" s="4"/>
+      <c r="Z16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
-      <c r="AF16" s="4"/>
-    </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE16" s="4"/>
+      <c r="AG16" s="4"/>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -2035,28 +2177,30 @@
       <c r="I17" s="4">
         <v>65</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4">
+      <c r="J17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" s="4">
         <v>2</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N17" s="4">
+      <c r="M17" s="4"/>
+      <c r="N17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17" s="4">
         <v>1</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="S17" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="T17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V17" s="2" t="s">
         <v>7</v>
@@ -2070,13 +2214,16 @@
       <c r="Y17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z17" s="4"/>
-      <c r="AB17" s="4"/>
+      <c r="Z17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
-      <c r="AF17" s="4"/>
-    </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE17" s="4"/>
+      <c r="AG17" s="4"/>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2101,28 +2248,30 @@
       <c r="I18" s="4">
         <v>60</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4">
+      <c r="J18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" s="4">
         <v>3</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N18" s="4">
+      <c r="M18" s="4"/>
+      <c r="N18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="4">
         <v>1</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="R18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S18" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="T18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>7</v>
@@ -2136,13 +2285,16 @@
       <c r="Y18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z18" s="4"/>
-      <c r="AB18" s="4"/>
+      <c r="Z18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
-      <c r="AF18" s="4"/>
-    </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE18" s="4"/>
+      <c r="AG18" s="4"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -2167,36 +2319,38 @@
       <c r="I19" s="4">
         <v>100</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4">
+      <c r="J19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="4">
         <v>0</v>
       </c>
-      <c r="L19" s="4">
-        <v>7</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="M19" s="4">
+        <v>7</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="4">
         <v>2</v>
       </c>
-      <c r="P19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>6</v>
+      <c r="Q19" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X19" s="2" t="s">
         <v>7</v>
@@ -2204,12 +2358,15 @@
       <c r="Y19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AB19" s="4"/>
+      <c r="Z19" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
-      <c r="AF19" s="4"/>
-    </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE19" s="4"/>
+      <c r="AG19" s="4"/>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -2234,22 +2391,24 @@
       <c r="I20" s="4">
         <v>100</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4">
+      <c r="J20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L20" s="4">
         <v>0</v>
       </c>
-      <c r="L20" s="4">
-        <v>6</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N20" s="4">
+      <c r="M20" s="4">
+        <v>6</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="4">
         <v>1</v>
       </c>
-      <c r="S20" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="T20" s="2" t="s">
         <v>7</v>
       </c>
@@ -2257,10 +2416,10 @@
         <v>7</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X20" s="2" t="s">
         <v>7</v>
@@ -2268,12 +2427,15 @@
       <c r="Y20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AB20" s="4"/>
+      <c r="Z20" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
-      <c r="AF20" s="4"/>
-    </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE20" s="4"/>
+      <c r="AG20" s="4"/>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -2298,36 +2460,38 @@
       <c r="I21" s="4">
         <v>100</v>
       </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4">
+      <c r="J21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L21" s="4">
         <v>0</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
         <v>9</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N21" s="4">
+      <c r="N21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="4">
         <v>1</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>6</v>
+      <c r="Q21" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="T21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X21" s="2" t="s">
         <v>7</v>
@@ -2335,12 +2499,15 @@
       <c r="Y21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AB21" s="4"/>
+      <c r="Z21" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
-      <c r="AF21" s="4"/>
-    </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE21" s="4"/>
+      <c r="AG21" s="4"/>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -2365,25 +2532,27 @@
       <c r="I22" s="4">
         <v>100</v>
       </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4">
+      <c r="J22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22" s="4">
         <v>0</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M22" s="4">
         <v>8</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N22" s="4" t="s">
+      <c r="N22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S22" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="T22" s="2" t="s">
         <v>6</v>
       </c>
@@ -2394,7 +2563,7 @@
         <v>6</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X22" s="2" t="s">
         <v>7</v>
@@ -2402,12 +2571,15 @@
       <c r="Y22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AB22" s="4"/>
+      <c r="Z22" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
-      <c r="AF22" s="4"/>
-    </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE22" s="4"/>
+      <c r="AG22" s="4"/>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -2432,24 +2604,26 @@
       <c r="I23" s="4">
         <v>100</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4">
+      <c r="J23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L23" s="4">
         <v>1</v>
       </c>
-      <c r="L23" s="4">
+      <c r="M23" s="4">
         <v>10</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N23" s="4">
+      <c r="N23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="4">
         <v>2</v>
       </c>
-      <c r="P23" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>6</v>
+      <c r="Q23" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="T23" s="2" t="s">
         <v>6</v>
@@ -2461,7 +2635,7 @@
         <v>6</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X23" s="2" t="s">
         <v>7</v>
@@ -2469,12 +2643,15 @@
       <c r="Y23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AB23" s="4"/>
+      <c r="Z23" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
-      <c r="AF23" s="4"/>
-    </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE23" s="4"/>
+      <c r="AG23" s="4"/>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -2499,25 +2676,27 @@
       <c r="I24" s="4">
         <v>70</v>
       </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4">
+      <c r="J24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L24" s="4">
         <v>2</v>
       </c>
-      <c r="L24" s="4">
+      <c r="M24" s="4">
         <v>11</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N24" s="4">
+      <c r="N24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O24" s="4">
         <v>1</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="R24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="S24" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="T24" s="2" t="s">
         <v>6</v>
       </c>
@@ -2528,7 +2707,7 @@
         <v>6</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X24" s="2" t="s">
         <v>7</v>
@@ -2536,12 +2715,15 @@
       <c r="Y24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AB24" s="4"/>
+      <c r="Z24" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
-      <c r="AF24" s="4"/>
-    </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE24" s="4"/>
+      <c r="AG24" s="4"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -2566,25 +2748,27 @@
       <c r="I25" s="4">
         <v>100</v>
       </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4">
+      <c r="J25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L25" s="4">
         <v>3</v>
       </c>
-      <c r="L25" s="4">
+      <c r="M25" s="4">
         <v>12</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N25" s="4" t="s">
+      <c r="N25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S25" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="T25" s="2" t="s">
         <v>6</v>
       </c>
@@ -2595,7 +2779,7 @@
         <v>6</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X25" s="2" t="s">
         <v>7</v>
@@ -2603,20 +2787,23 @@
       <c r="Y25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AB25" s="4"/>
+      <c r="Z25" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
-      <c r="AF25" s="4"/>
-    </row>
-    <row r="26" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE25" s="4"/>
+      <c r="AG25" s="4"/>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
         <v>22</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E26" s="4">
         <v>3</v>
@@ -2629,19 +2816,24 @@
       <c r="I26" s="4">
         <v>0</v>
       </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4">
+      <c r="J26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L26" s="4">
         <v>0</v>
       </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N26" s="4">
+      <c r="M26" s="4"/>
+      <c r="N26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" s="4">
         <v>1</v>
       </c>
-      <c r="S26" s="2" t="s">
-        <v>6</v>
+      <c r="Q26" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="T26" s="2" t="s">
         <v>6</v>
@@ -2653,28 +2845,31 @@
         <v>6</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB26" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
-      <c r="AF26" s="4"/>
-    </row>
-    <row r="27" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE26" s="4"/>
+      <c r="AG26" s="4"/>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
         <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E27" s="4">
         <v>3</v>
@@ -2687,19 +2882,24 @@
       <c r="I27" s="4">
         <v>0</v>
       </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4">
+      <c r="J27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L27" s="4">
         <v>0</v>
       </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N27" s="4">
+      <c r="M27" s="4"/>
+      <c r="N27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O27" s="4">
         <v>1</v>
       </c>
-      <c r="S27" s="2" t="s">
-        <v>6</v>
+      <c r="Q27" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="T27" s="2" t="s">
         <v>6</v>
@@ -2711,28 +2911,31 @@
         <v>6</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB27" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
-      <c r="AF27" s="4"/>
-    </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE27" s="4"/>
+      <c r="AG27" s="4"/>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E28" s="4">
         <v>3</v>
@@ -2745,19 +2948,24 @@
       <c r="I28" s="4">
         <v>0</v>
       </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4">
+      <c r="J28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L28" s="4">
         <v>0</v>
       </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N28" s="4">
+      <c r="M28" s="4"/>
+      <c r="N28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28" s="4">
         <v>1</v>
       </c>
-      <c r="S28" s="2" t="s">
-        <v>6</v>
+      <c r="Q28" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="T28" s="2" t="s">
         <v>6</v>
@@ -2766,7 +2974,7 @@
         <v>6</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W28" s="2" t="s">
         <v>7</v>
@@ -2777,20 +2985,23 @@
       <c r="Y28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AB28" s="4"/>
+      <c r="Z28" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
-      <c r="AF28" s="4"/>
-    </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE28" s="4"/>
+      <c r="AG28" s="4"/>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <v>25</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E29" s="4">
         <v>3</v>
@@ -2803,19 +3014,24 @@
       <c r="I29" s="4">
         <v>0</v>
       </c>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4">
+      <c r="J29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L29" s="4">
         <v>0</v>
       </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N29" s="4">
+      <c r="M29" s="4"/>
+      <c r="N29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O29" s="4">
         <v>1</v>
       </c>
-      <c r="S29" s="2" t="s">
-        <v>6</v>
+      <c r="Q29" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="T29" s="2" t="s">
         <v>6</v>
@@ -2824,7 +3040,7 @@
         <v>6</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W29" s="2" t="s">
         <v>7</v>
@@ -2835,21 +3051,24 @@
       <c r="Y29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z29" s="4"/>
-      <c r="AB29" s="4"/>
+      <c r="Z29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
-      <c r="AF29" s="4"/>
-    </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE29" s="4"/>
+      <c r="AG29" s="4"/>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E30" s="4">
         <v>3</v>
@@ -2862,19 +3081,24 @@
       <c r="I30" s="4">
         <v>0</v>
       </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4">
+      <c r="J30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L30" s="4">
         <v>0</v>
       </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N30" s="4">
+      <c r="M30" s="4"/>
+      <c r="N30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" s="4">
         <v>1</v>
       </c>
-      <c r="S30" s="2" t="s">
-        <v>6</v>
+      <c r="Q30" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="T30" s="2" t="s">
         <v>6</v>
@@ -2883,7 +3107,7 @@
         <v>6</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W30" s="2" t="s">
         <v>7</v>
@@ -2892,23 +3116,26 @@
         <v>7</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z30" s="4"/>
-      <c r="AB30" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
-      <c r="AF30" s="4"/>
-    </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE30" s="4"/>
+      <c r="AG30" s="4"/>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B31" s="4">
         <v>27</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E31" s="4">
         <v>3</v>
@@ -2921,20 +3148,22 @@
       <c r="I31" s="4">
         <v>0</v>
       </c>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4">
+      <c r="J31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L31" s="4">
         <v>0</v>
       </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N31" s="4">
+      <c r="M31" s="4"/>
+      <c r="N31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" s="4">
         <v>1</v>
       </c>
-      <c r="S31" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="T31" s="2" t="s">
         <v>6</v>
       </c>
@@ -2942,7 +3171,7 @@
         <v>6</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W31" s="2" t="s">
         <v>7</v>
@@ -2953,21 +3182,24 @@
       <c r="Y31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z31" s="4"/>
-      <c r="AB31" s="4"/>
+      <c r="Z31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
-      <c r="AF31" s="4"/>
-    </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE31" s="4"/>
+      <c r="AG31" s="4"/>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
         <v>28</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E32" s="4">
         <v>3</v>
@@ -2980,20 +3212,22 @@
       <c r="I32" s="4">
         <v>0</v>
       </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4">
+      <c r="J32" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L32" s="4">
         <v>0</v>
       </c>
-      <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N32" s="4">
+      <c r="M32" s="4"/>
+      <c r="N32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O32" s="4">
         <v>1</v>
       </c>
-      <c r="S32" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="T32" s="2" t="s">
         <v>6</v>
       </c>
@@ -3001,7 +3235,7 @@
         <v>6</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W32" s="2" t="s">
         <v>7</v>
@@ -3012,13 +3246,16 @@
       <c r="Y32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z32" s="4"/>
-      <c r="AB32" s="4"/>
+      <c r="Z32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
-      <c r="AF32" s="4"/>
-    </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE32" s="4"/>
+      <c r="AG32" s="4"/>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -3030,17 +3267,18 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="S33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z33" s="4"/>
-      <c r="AB33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="T33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
-      <c r="AF33" s="4"/>
-    </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE33" s="4"/>
+      <c r="AG33" s="4"/>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -3052,14 +3290,15 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AB34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="AA34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
-      <c r="AF34" s="4"/>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE34" s="4"/>
+      <c r="AG34" s="4"/>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -3071,14 +3310,15 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AB35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="AA35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
-      <c r="AF35" s="4"/>
-    </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE35" s="4"/>
+      <c r="AG35" s="4"/>
+    </row>
+    <row r="36" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3090,14 +3330,15 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AB36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="AA36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
-      <c r="AF36" s="4"/>
-    </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE36" s="4"/>
+      <c r="AG36" s="4"/>
+    </row>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -3109,14 +3350,15 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AB37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="AA37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
-      <c r="AF37" s="4"/>
-    </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE37" s="4"/>
+      <c r="AG37" s="4"/>
+    </row>
+    <row r="38" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3128,14 +3370,15 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AB38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="AA38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
-      <c r="AF38" s="4"/>
-    </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE38" s="4"/>
+      <c r="AG38" s="4"/>
+    </row>
+    <row r="39" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -3147,14 +3390,15 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="Z39" s="4"/>
-      <c r="AB39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="AA39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
-      <c r="AF39" s="4"/>
-    </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE39" s="4"/>
+      <c r="AG39" s="4"/>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3166,13 +3410,14 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="AB40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="O40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
-      <c r="AF40" s="4"/>
-    </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE40" s="4"/>
+      <c r="AG40" s="4"/>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3184,13 +3429,14 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="AB41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="O41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
-      <c r="AF41" s="4"/>
-    </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE41" s="4"/>
+      <c r="AG41" s="4"/>
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -3202,13 +3448,14 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="AB42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="O42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
-      <c r="AF42" s="4"/>
-    </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE42" s="4"/>
+      <c r="AG42" s="4"/>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -3220,13 +3467,14 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="AB43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="O43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
-      <c r="AF43" s="4"/>
-    </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE43" s="4"/>
+      <c r="AG43" s="4"/>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -3238,38 +3486,39 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="AB44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="O44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
-      <c r="AF44" s="4"/>
-    </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE44" s="4"/>
+      <c r="AG44" s="4"/>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
-      <c r="AF45" s="4"/>
-    </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AE45" s="4"/>
+      <c r="AG45" s="4"/>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="AB46" s="4"/>
-      <c r="AD46" s="4"/>
-      <c r="AF46" s="4"/>
-    </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AC46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AG46" s="4"/>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>

--- a/Data/Export/Common/Skill_技能.xlsx
+++ b/Data/Export/Common/Skill_技能.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7889CC83-1C52-4800-A00E-378163BDB755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9647EE2B-B695-49E3-A196-92576B301975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="129">
   <si>
     <t>备注:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -492,6 +492,10 @@
   </si>
   <si>
     <t>[{class:"RemoveBuffById",values:[1,2],probability:10000},class:"RecureWoundedTroops",probability:10000,values:[20,30], weight:[70,30],condition:{class:"SkillIsCritical",result:1}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommonMethod</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -979,10 +983,10 @@
   <dimension ref="A1:AH69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="U5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1394,7 +1398,7 @@
         <v>100</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>105</v>
